--- a/gsc-export/heatlabs.net-Video-indexing.xlsx
+++ b/gsc-export/heatlabs.net-Video-indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -107,6 +107,18 @@
   </si>
   <si>
     <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-10-31</t>
+  </si>
+  <si>
+    <t>2025-11-01</t>
+  </si>
+  <si>
+    <t>2025-11-02</t>
+  </si>
+  <si>
+    <t>2025-11-03</t>
   </si>
   <si>
     <t>Reason</t>
@@ -183,7 +195,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -565,6 +577,62 @@
       </c>
       <c r="D27" t="n" s="0">
         <v>0.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B28" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C28" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D28" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B29" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C29" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D29" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B30" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C30" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D30" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B31" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C31" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -582,24 +650,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
     </row>
   </sheetData>
@@ -617,18 +685,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/heatlabs.net-Video-indexing.xlsx
+++ b/gsc-export/heatlabs.net-Video-indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -631,8 +631,8 @@
       <c r="C31" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="D31" t="s" s="0">
-        <v>5</v>
+      <c r="D31" t="n" s="0">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/heatlabs.net-Video-indexing.xlsx
+++ b/gsc-export/heatlabs.net-Video-indexing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -119,6 +119,15 @@
   </si>
   <si>
     <t>2025-11-03</t>
+  </si>
+  <si>
+    <t>2025-11-04</t>
+  </si>
+  <si>
+    <t>2025-11-05</t>
+  </si>
+  <si>
+    <t>2025-11-06</t>
   </si>
   <si>
     <t>Reason</t>
@@ -195,7 +204,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -633,6 +642,48 @@
       </c>
       <c r="D31" t="n" s="0">
         <v>0.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B32" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="C32" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D32" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B33" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="C33" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D33" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B34" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="C34" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -650,24 +701,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
   </sheetData>
@@ -685,18 +736,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
